--- a/tpn/tools/xlsx2data/data/shop.xlsx
+++ b/tpn/tools/xlsx2data/data/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Shop" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>id@ui32@!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type@ui32@*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item@ui32-ui32|@*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price@ui32-ui32|@*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +56,18 @@
   <si>
     <t>10001-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id@u32@!</t>
+  </si>
+  <si>
+    <t>type@u32@*</t>
+  </si>
+  <si>
+    <t>item@u32-u32@*</t>
+  </si>
+  <si>
+    <t>price@u32-u32@*</t>
   </si>
 </sst>
 </file>
@@ -410,45 +406,45 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -456,13 +452,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -470,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -484,13 +480,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -498,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="C1" r:id="rId3"/>
-    <hyperlink ref="D1" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId1" display="id@ui32@!"/>
+    <hyperlink ref="B1" r:id="rId2" display="type@ui32@*"/>
+    <hyperlink ref="C1" r:id="rId3" display="item@ui32-ui32@*"/>
+    <hyperlink ref="D1" r:id="rId4" display="price@ui32-ui32@*"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,7 +520,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tpn/tools/xlsx2data/data/shop.xlsx
+++ b/tpn/tools/xlsx2data/data/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="@Shop" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-100|2-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1000|2-200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-500|2-300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10001-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +56,18 @@
   </si>
   <si>
     <t>price@u32-u32@*</t>
+  </si>
+  <si>
+    <t>1-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -418,16 +418,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,10 +452,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,10 +480,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -509,6 +509,7 @@
     <hyperlink ref="D1" r:id="rId4" display="price@ui32-ui32@*"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
